--- a/2016년 수강료 4월/중국어 수강료및 수용비.xlsx
+++ b/2016년 수강료 4월/중국어 수강료및 수용비.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="19440" windowHeight="12555"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -730,15 +730,15 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G39"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -758,13 +758,13 @@
         <v>45</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -783,13 +783,13 @@
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="F2" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -807,13 +807,13 @@
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H3" s="1"/>
+      <c r="F3" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
@@ -831,13 +831,13 @@
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H4" s="1"/>
+      <c r="F4" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
@@ -855,13 +855,13 @@
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="F5" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
@@ -879,13 +879,13 @@
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="F6" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
@@ -903,13 +903,13 @@
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H7" s="1"/>
+      <c r="F7" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
@@ -927,13 +927,13 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H8" s="1"/>
+      <c r="F8" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
@@ -951,13 +951,13 @@
       <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="F9" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
@@ -975,13 +975,13 @@
       <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H10" s="1"/>
+      <c r="F10" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
@@ -999,14 +999,14 @@
       <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="H11" s="9">
+        <v>22110</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1025,13 +1025,13 @@
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="F12" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="9">
+        <v>22110</v>
+      </c>
       <c r="I12" t="s">
         <v>48</v>
       </c>
@@ -1052,13 +1052,13 @@
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H13" s="1"/>
+      <c r="F13" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -1076,13 +1076,13 @@
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H14" s="1"/>
+      <c r="F14" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
@@ -1100,14 +1100,14 @@
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="F15" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="H15" s="9">
+        <v>22110</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1126,13 +1126,13 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H16" s="1"/>
+      <c r="F16" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
@@ -1150,13 +1150,13 @@
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H17" s="1"/>
+      <c r="F17" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
@@ -1174,13 +1174,13 @@
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H18" s="1"/>
+      <c r="F18" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
@@ -1198,14 +1198,14 @@
       <c r="E19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="F19" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="H19" s="9">
+        <v>22110</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1224,13 +1224,13 @@
       <c r="E20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="F20" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
@@ -1248,13 +1248,13 @@
       <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H21" s="1"/>
+      <c r="F21" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
@@ -1272,13 +1272,13 @@
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H22" s="1"/>
+      <c r="F22" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
@@ -1296,13 +1296,13 @@
       <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H23" s="1"/>
+      <c r="F23" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
@@ -1320,13 +1320,13 @@
       <c r="E24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H24" s="1"/>
+      <c r="F24" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
@@ -1344,13 +1344,13 @@
       <c r="E25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H25" s="1"/>
+      <c r="F25" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
@@ -1368,13 +1368,13 @@
       <c r="E26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H26" s="1"/>
+      <c r="F26" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
@@ -1392,13 +1392,13 @@
       <c r="E27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H27" s="1"/>
+      <c r="F27" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
@@ -1416,13 +1416,13 @@
       <c r="E28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H28" s="1"/>
+      <c r="F28" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
@@ -1440,14 +1440,14 @@
       <c r="E29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="F29" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="H29" s="9">
+        <v>22110</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1466,13 +1466,13 @@
       <c r="E30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H30" s="1"/>
+      <c r="F30" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
@@ -1490,13 +1490,13 @@
       <c r="E31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H31" s="1"/>
+      <c r="F31" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
@@ -1514,13 +1514,13 @@
       <c r="E32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H32" s="1"/>
+      <c r="F32" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
@@ -1538,13 +1538,13 @@
       <c r="E33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H33" s="1"/>
+      <c r="F33" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
@@ -1562,13 +1562,13 @@
       <c r="E34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H34" s="1"/>
+      <c r="F34" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
@@ -1586,14 +1586,14 @@
       <c r="E35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="F35" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="H35" s="9">
+        <v>22110</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1612,13 +1612,13 @@
       <c r="E36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H36" s="1"/>
+      <c r="F36" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
@@ -1636,13 +1636,13 @@
       <c r="E37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H37" s="1"/>
+      <c r="F37" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
@@ -1660,13 +1660,13 @@
       <c r="E38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H38" s="1"/>
+      <c r="F38" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="9">
+        <v>22110</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
@@ -1684,13 +1684,13 @@
       <c r="E39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="9">
-        <v>22110</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1770</v>
-      </c>
-      <c r="H39" s="1"/>
+      <c r="F39" s="10">
+        <v>1770</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="9">
+        <v>22110</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B2:D35">
